--- a/用例数据/沪权/组合保证金/测试结果.xlsx
+++ b/用例数据/沪权/组合保证金/测试结果.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21588" windowHeight="7728" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21585" windowHeight="7725" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="stkoptionsettlement" sheetId="6" r:id="rId2"/>
     <sheet name="FutureCombAction" sheetId="5" r:id="rId3"/>
-    <sheet name="futuretradinglog" sheetId="4" r:id="rId4"/>
-    <sheet name="futurepositiondetail" sheetId="3" r:id="rId5"/>
-    <sheet name="futureposition" sheetId="2" r:id="rId6"/>
+    <sheet name="Sheet2" sheetId="7" r:id="rId4"/>
+    <sheet name="futuretradinglog" sheetId="4" r:id="rId5"/>
+    <sheet name="futurepositiondetail" sheetId="3" r:id="rId6"/>
+    <sheet name="futureposition" sheetId="2" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">FutureCombAction!$A$1:$AP$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">futureposition!$A$1:$BC$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">futuretradinglog!$A$1:$CY$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">FutureCombAction!$A$1:$AO$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">futureposition!$A$1:$BB$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">futuretradinglog!$A$1:$CX$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">stkoptionsettlement!$A$1:$BH$1</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9045" uniqueCount="546">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9054" uniqueCount="576">
   <si>
     <t xml:space="preserve">   </t>
   </si>
@@ -1666,16 +1667,104 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>A117212005</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00W40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>futurepositon</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000117212005</t>
+  </si>
+  <si>
+    <t>14427.00</t>
+  </si>
+  <si>
+    <t>DIFFCOMMISION</t>
+  </si>
+  <si>
+    <t>30100670</t>
+  </si>
+  <si>
+    <t>20230215235959</t>
+  </si>
+  <si>
+    <t>20230216084529</t>
+  </si>
+  <si>
+    <t>1000726305.840</t>
+  </si>
+  <si>
+    <t>30100671</t>
+  </si>
+  <si>
+    <t>30100673</t>
+  </si>
+  <si>
+    <t>30100675</t>
+  </si>
+  <si>
+    <t>5469.600</t>
+  </si>
+  <si>
+    <t>30100678</t>
+  </si>
+  <si>
+    <t>4049.600</t>
+  </si>
+  <si>
+    <t>30100679</t>
+  </si>
+  <si>
+    <t>14427.000</t>
+  </si>
+  <si>
+    <t>30100680</t>
+  </si>
+  <si>
+    <t>30100681</t>
+  </si>
+  <si>
+    <t>20221129220315</t>
+  </si>
+  <si>
+    <t>30300366</t>
+  </si>
+  <si>
+    <t>20221129000000</t>
+  </si>
+  <si>
+    <t>30300367</t>
+  </si>
+  <si>
+    <t>30300368</t>
+  </si>
+  <si>
+    <t>19236.00</t>
+  </si>
+  <si>
+    <t>30300369</t>
+  </si>
+  <si>
+    <t>30300370</t>
+  </si>
+  <si>
+    <t>30300371</t>
+  </si>
+  <si>
+    <t>30300372</t>
+  </si>
+  <si>
+    <t>30300373</t>
+  </si>
+  <si>
+    <t>30300374</t>
+  </si>
+  <si>
+    <t>30300375</t>
+  </si>
+  <si>
+    <t>30300376</t>
+  </si>
+  <si>
+    <t>30300377</t>
   </si>
 </sst>
 </file>
@@ -2010,33 +2099,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CZ818"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="22.77734375" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="21.125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="17.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
-    <row r="10" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -2206,7 +2295,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>116</v>
       </c>
@@ -2367,7 +2456,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>116</v>
       </c>
@@ -2528,7 +2617,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>116</v>
       </c>
@@ -2689,7 +2778,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>116</v>
       </c>
@@ -2850,7 +2939,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>116</v>
       </c>
@@ -3011,7 +3100,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="16" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>116</v>
       </c>
@@ -3172,7 +3261,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>116</v>
       </c>
@@ -3333,7 +3422,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="18" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>116</v>
       </c>
@@ -3494,7 +3583,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>116</v>
       </c>
@@ -3655,7 +3744,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>116</v>
       </c>
@@ -3816,7 +3905,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="21" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>116</v>
       </c>
@@ -3977,7 +4066,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="22" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>116</v>
       </c>
@@ -4138,7 +4227,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="23" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>0</v>
       </c>
@@ -4308,7 +4397,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>450</v>
       </c>
@@ -4472,7 +4561,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>450</v>
       </c>
@@ -4636,7 +4725,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>450</v>
       </c>
@@ -4800,7 +4889,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="27" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>450</v>
       </c>
@@ -4964,7 +5053,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="28" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>450</v>
       </c>
@@ -5128,7 +5217,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="29" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>450</v>
       </c>
@@ -5292,7 +5381,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="30" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>450</v>
       </c>
@@ -5456,7 +5545,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="31" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>450</v>
       </c>
@@ -5620,7 +5709,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="32" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>450</v>
       </c>
@@ -5784,7 +5873,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="33" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>450</v>
       </c>
@@ -5948,7 +6037,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="34" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>450</v>
       </c>
@@ -6112,7 +6201,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="35" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>450</v>
       </c>
@@ -6276,28 +6365,28 @@
         <v>71</v>
       </c>
     </row>
-    <row r="36" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="37" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="38" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="39" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="40" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="41" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="45" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="46" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="49" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="50" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="51" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="52" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="37" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="38" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="39" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="40" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="41" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="42" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="44" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="45" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="47" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="48" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="49" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="50" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="51" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="52" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="53" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>0</v>
       </c>
@@ -6413,7 +6502,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="54" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>204</v>
       </c>
@@ -6523,7 +6612,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="55" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>204</v>
       </c>
@@ -6633,7 +6722,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="56" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>204</v>
       </c>
@@ -6743,7 +6832,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="57" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>204</v>
       </c>
@@ -6853,7 +6942,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="58" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>204</v>
       </c>
@@ -6963,7 +7052,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="59" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>204</v>
       </c>
@@ -7073,7 +7162,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="60" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>204</v>
       </c>
@@ -7183,7 +7272,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="61" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>204</v>
       </c>
@@ -7293,7 +7382,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="62" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>204</v>
       </c>
@@ -7403,7 +7492,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="63" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>204</v>
       </c>
@@ -7513,7 +7602,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="64" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>204</v>
       </c>
@@ -7623,7 +7712,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="65" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>204</v>
       </c>
@@ -7733,7 +7822,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="66" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>451</v>
       </c>
@@ -7843,7 +7932,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="67" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>451</v>
       </c>
@@ -7953,7 +8042,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="68" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>451</v>
       </c>
@@ -8063,7 +8152,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="69" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>451</v>
       </c>
@@ -8173,7 +8262,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="70" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>451</v>
       </c>
@@ -8283,7 +8372,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="71" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>451</v>
       </c>
@@ -8393,7 +8482,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="72" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>451</v>
       </c>
@@ -8503,7 +8592,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="73" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>451</v>
       </c>
@@ -8613,7 +8702,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>451</v>
       </c>
@@ -8723,7 +8812,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="75" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>451</v>
       </c>
@@ -8833,7 +8922,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="76" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>451</v>
       </c>
@@ -8943,7 +9032,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="77" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>451</v>
       </c>
@@ -9053,17 +9142,17 @@
         <v>72</v>
       </c>
     </row>
-    <row r="78" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="79" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="80" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="81" spans="1:104" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="82" spans="1:104" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="83" spans="1:104" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="79" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="80" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="81" spans="1:104" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="82" spans="1:104" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="83" spans="1:104" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="84" spans="1:104" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:104" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>0</v>
       </c>
@@ -9377,7 +9466,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="85" spans="1:104" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:104" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>542</v>
       </c>
@@ -9619,7 +9708,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="86" spans="1:104" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:104" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>542</v>
       </c>
@@ -9861,7 +9950,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="87" spans="1:104" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:104" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>542</v>
       </c>
@@ -10103,7 +10192,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="88" spans="1:104" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:104" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>542</v>
       </c>
@@ -10345,7 +10434,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="89" spans="1:104" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:104" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>542</v>
       </c>
@@ -10587,7 +10676,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="90" spans="1:104" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:104" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>542</v>
       </c>
@@ -10829,7 +10918,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="91" spans="1:104" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:104" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>542</v>
       </c>
@@ -11071,7 +11160,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="92" spans="1:104" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:104" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>542</v>
       </c>
@@ -11313,33 +11402,33 @@
         <v>71</v>
       </c>
     </row>
-    <row r="93" spans="1:104" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="94" spans="1:104" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="95" spans="1:104" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="96" spans="1:104" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="97" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="98" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="99" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="100" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="101" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="102" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="103" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="104" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="105" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="106" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="107" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="108" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="109" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="110" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="111" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="112" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="113" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="114" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:104" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="94" spans="1:104" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="95" spans="1:104" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="96" spans="1:104" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="97" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="98" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="99" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="100" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="101" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="102" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="103" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="104" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="105" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="106" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="107" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="108" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="109" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="110" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="111" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="112" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="113" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="114" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="115" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>0</v>
       </c>
@@ -11470,7 +11559,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="116" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>56</v>
       </c>
@@ -11586,7 +11675,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="117" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>76</v>
       </c>
@@ -11702,7 +11791,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="118" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>82</v>
       </c>
@@ -11818,7 +11907,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="119" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>86</v>
       </c>
@@ -11934,7 +12023,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="120" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>70</v>
       </c>
@@ -12050,7 +12139,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="121" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>80</v>
       </c>
@@ -12166,7 +12255,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="122" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>94</v>
       </c>
@@ -12282,7 +12371,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="123" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>98</v>
       </c>
@@ -12398,7 +12487,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="124" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>102</v>
       </c>
@@ -12514,7 +12603,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="125" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>106</v>
       </c>
@@ -12630,7 +12719,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="126" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>109</v>
       </c>
@@ -12746,7 +12835,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="127" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>113</v>
       </c>
@@ -12862,34 +12951,34 @@
         <v>72</v>
       </c>
     </row>
-    <row r="128" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="129" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="130" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="131" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="132" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="133" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="134" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="135" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="136" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="137" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="138" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="140" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="141" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="142" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="143" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="144" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="145" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="146" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="147" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="148" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="149" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="150" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="129" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="130" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="131" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="132" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="133" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="134" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="135" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="136" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="137" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="138" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="140" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="141" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="142" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="143" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="144" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="145" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="146" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="147" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="148" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="149" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="150" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="151" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>0</v>
       </c>
@@ -13074,7 +13163,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="152" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
         <v>56</v>
       </c>
@@ -13199,7 +13288,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="153" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
         <v>76</v>
       </c>
@@ -13324,7 +13413,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="154" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
         <v>82</v>
       </c>
@@ -13449,7 +13538,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="155" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
         <v>86</v>
       </c>
@@ -13574,7 +13663,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="156" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
         <v>70</v>
       </c>
@@ -13699,7 +13788,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="157" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
         <v>80</v>
       </c>
@@ -13824,7 +13913,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="158" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
         <v>94</v>
       </c>
@@ -13913,7 +14002,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="159" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
         <v>98</v>
       </c>
@@ -14002,7 +14091,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="160" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
         <v>102</v>
       </c>
@@ -14091,7 +14180,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="161" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
         <v>106</v>
       </c>
@@ -14180,7 +14269,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="162" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
         <v>109</v>
       </c>
@@ -14269,7 +14358,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="163" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
         <v>113</v>
       </c>
@@ -14358,7 +14447,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="164" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>289</v>
       </c>
@@ -14447,7 +14536,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="165" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
         <v>290</v>
       </c>
@@ -14536,7 +14625,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="166" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
         <v>291</v>
       </c>
@@ -14625,7 +14714,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="167" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
         <v>292</v>
       </c>
@@ -14714,7 +14803,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="168" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
         <v>294</v>
       </c>
@@ -14803,7 +14892,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="169" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
         <v>296</v>
       </c>
@@ -14892,7 +14981,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="170" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
         <v>298</v>
       </c>
@@ -15008,7 +15097,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="171" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
         <v>300</v>
       </c>
@@ -15124,7 +15213,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="172" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
         <v>301</v>
       </c>
@@ -15240,7 +15329,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="173" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
         <v>302</v>
       </c>
@@ -15356,7 +15445,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="174" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
         <v>303</v>
       </c>
@@ -15472,7 +15561,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="175" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
         <v>304</v>
       </c>
@@ -15588,7 +15677,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="176" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
         <v>305</v>
       </c>
@@ -15704,7 +15793,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="177" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
         <v>306</v>
       </c>
@@ -15820,7 +15909,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="178" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
         <v>307</v>
       </c>
@@ -15936,7 +16025,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="179" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
         <v>308</v>
       </c>
@@ -16052,7 +16141,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="180" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
         <v>309</v>
       </c>
@@ -16168,7 +16257,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="181" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
         <v>310</v>
       </c>
@@ -16284,7 +16373,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="182" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
         <v>311</v>
       </c>
@@ -16406,7 +16495,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="183" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
         <v>313</v>
       </c>
@@ -16528,7 +16617,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="184" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
         <v>314</v>
       </c>
@@ -16650,7 +16739,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="185" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
         <v>315</v>
       </c>
@@ -16772,7 +16861,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="186" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
         <v>316</v>
       </c>
@@ -16894,7 +16983,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="187" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
         <v>317</v>
       </c>
@@ -17016,7 +17105,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="188" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
         <v>318</v>
       </c>
@@ -17138,7 +17227,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="189" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
         <v>319</v>
       </c>
@@ -17260,7 +17349,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="190" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
         <v>320</v>
       </c>
@@ -17382,7 +17471,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="191" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
         <v>321</v>
       </c>
@@ -17504,7 +17593,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="192" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
         <v>322</v>
       </c>
@@ -17626,7 +17715,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="193" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
         <v>323</v>
       </c>
@@ -17748,631 +17837,631 @@
         <v>71</v>
       </c>
     </row>
-    <row r="194" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="195" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="196" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="197" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="198" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="199" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="200" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="201" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="202" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="203" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="204" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="205" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="206" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="207" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="208" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="209" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="210" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="211" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="212" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="213" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="214" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="215" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="216" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="217" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="218" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="219" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="220" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="221" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="222" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="223" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="224" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="225" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="226" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="227" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="228" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="229" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="230" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="231" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="232" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="233" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="234" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="235" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="236" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="237" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="238" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="239" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="240" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="241" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="242" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="243" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="244" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="245" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="246" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="247" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="248" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="249" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="250" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="251" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="252" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="253" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="254" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="255" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="256" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="257" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="258" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="259" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="260" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="261" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="262" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="263" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="264" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="265" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="266" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="267" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="268" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="269" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="270" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="271" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="272" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="273" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="274" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="275" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="276" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="277" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="278" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="279" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="280" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="281" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="282" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="283" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="284" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="285" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="286" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="287" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="288" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="289" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="290" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="291" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="292" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="293" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="294" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="295" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="296" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="297" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="298" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="299" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="300" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="301" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="302" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="303" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="304" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="305" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="306" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="307" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="308" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="309" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="310" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="311" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="312" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="313" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="314" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="315" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="316" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="317" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="318" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="319" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="320" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="321" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="322" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="323" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="324" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="325" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="326" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="327" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="328" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="329" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="330" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="331" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="332" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="333" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="334" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="335" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="336" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="337" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="338" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="339" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="340" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="341" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="342" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="343" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="344" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="345" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="346" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="347" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="348" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="349" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="350" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="351" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="352" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="353" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="354" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="355" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="356" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="357" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="358" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="359" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="360" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="361" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="362" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="363" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="364" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="365" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="366" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="367" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="368" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="369" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="370" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="371" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="372" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="373" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="374" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="375" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="376" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="377" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="378" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="379" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="380" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="381" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="382" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="383" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="384" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="385" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="386" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="387" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="388" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="389" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="390" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="391" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="392" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="393" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="394" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="395" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="396" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="397" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="398" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="399" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="400" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="401" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="402" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="403" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="404" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="405" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="406" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="407" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="408" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="409" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="410" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="411" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="412" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="413" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="414" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="415" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="416" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="417" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="418" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="419" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="420" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="421" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="422" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="423" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="424" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="425" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="426" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="427" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="428" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="429" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="430" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="431" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="432" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="433" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="434" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="435" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="436" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="437" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="438" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="439" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="440" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="441" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="442" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="443" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="444" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="445" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="446" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="447" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="448" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="449" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="450" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="451" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="452" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="453" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="454" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="455" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="456" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="457" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="458" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="459" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="460" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="461" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="462" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="463" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="464" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="465" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="466" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="467" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="468" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="469" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="470" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="471" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="472" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="473" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="474" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="475" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="476" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="477" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="478" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="479" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="480" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="481" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="482" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="483" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="484" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="485" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="486" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="487" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="488" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="489" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="490" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="491" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="492" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="493" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="494" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="495" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="496" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="497" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="498" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="499" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="500" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="501" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="502" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="503" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="504" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="505" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="506" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="507" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="508" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="509" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="510" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="511" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="512" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="513" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="514" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="515" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="516" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="517" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="518" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="519" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="520" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="521" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="522" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="523" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="524" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="525" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="526" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="527" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="528" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="529" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="530" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="531" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="532" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="533" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="534" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="535" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="536" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="537" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="538" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="539" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="540" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="541" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="542" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="543" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="544" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="545" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="546" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="547" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="548" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="549" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="550" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="551" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="552" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="553" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="554" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="555" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="556" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="557" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="558" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="559" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="560" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="561" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="562" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="563" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="564" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="565" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="566" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="567" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="568" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="569" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="570" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="571" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="572" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="573" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="574" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="575" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="576" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="577" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="578" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="579" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="580" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="581" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="582" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="583" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="584" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="585" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="586" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="587" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="588" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="589" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="590" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="591" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="592" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="593" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="594" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="595" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="596" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="597" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="598" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="599" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="600" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="601" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="602" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="603" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="604" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="605" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="606" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="607" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="608" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="609" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="610" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="611" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="612" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="613" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="614" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="615" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="616" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="617" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="618" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="619" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="620" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="621" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="622" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="623" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="624" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="625" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="626" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="627" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="628" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="629" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="630" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="631" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="632" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="633" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="634" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="635" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="636" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="637" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="638" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="639" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="640" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="641" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="642" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="643" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="644" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="645" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="646" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="647" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="648" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="649" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="650" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="651" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="652" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="653" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="654" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="655" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="656" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="657" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="658" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="659" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="660" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="661" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="662" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="663" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="664" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="665" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="666" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="667" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="668" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="669" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="670" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="671" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="672" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="673" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="674" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="675" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="676" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="677" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="678" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="679" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="680" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="681" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="682" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="683" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="684" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="685" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="686" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="687" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="688" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="689" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="690" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="691" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="692" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="693" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="694" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="695" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="696" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="697" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="698" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="699" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="700" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="701" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="702" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="703" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="704" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="705" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="706" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="707" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="708" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="709" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="710" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="711" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="712" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="713" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="714" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="715" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="716" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="717" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="718" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="719" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="720" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="721" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="722" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="723" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="724" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="725" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="726" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="727" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="728" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="729" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="730" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="731" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="732" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="733" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="734" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="735" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="736" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="737" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="738" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="739" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="740" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="741" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="742" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="743" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="744" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="745" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="746" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="747" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="748" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="749" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="750" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="751" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="752" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="753" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="754" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="755" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="756" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="757" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="758" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="759" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="760" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="761" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="762" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="763" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="764" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="765" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="766" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="767" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="768" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="769" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="770" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="771" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="772" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="773" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="774" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="775" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="776" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="777" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="778" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="779" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="780" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="781" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="782" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="783" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="784" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="785" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="786" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="787" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="788" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="789" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="790" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="791" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="792" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="793" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="794" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="795" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="796" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="797" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="798" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="799" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="800" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="801" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="802" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="803" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="804" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="805" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="806" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="807" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="808" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="809" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="810" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="811" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="812" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="813" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="814" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="815" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="816" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="817" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="818" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="194" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="195" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="196" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="197" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="198" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="199" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="200" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="201" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="202" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="203" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="204" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="205" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="206" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="207" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="208" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="209" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="210" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="211" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="212" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="213" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="214" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="215" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="216" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="217" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="218" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="219" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="220" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="221" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="222" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="223" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="224" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="225" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="226" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="227" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="228" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="229" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="230" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="231" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="232" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="233" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="234" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="235" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="236" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="237" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="238" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="239" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="240" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="241" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="242" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="243" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="244" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="245" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="246" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="247" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="248" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="249" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="250" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="251" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="252" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="253" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="254" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="255" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="256" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="257" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="258" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="259" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="260" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="261" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="262" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="263" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="264" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="265" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="266" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="267" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="268" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="269" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="270" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="271" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="272" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="273" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="274" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="275" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="276" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="277" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="278" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="279" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="280" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="281" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="282" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="283" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="284" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="285" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="286" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="287" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="288" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="289" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="290" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="291" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="292" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="293" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="294" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="295" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="296" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="297" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="298" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="299" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="300" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="301" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="302" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="303" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="304" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="305" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="306" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="307" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="308" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="309" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="310" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="311" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="312" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="313" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="314" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="315" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="316" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="317" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="318" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="319" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="320" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="321" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="322" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="323" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="324" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="325" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="326" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="327" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="328" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="329" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="330" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="331" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="332" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="333" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="334" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="335" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="336" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="337" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="338" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="339" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="340" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="341" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="342" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="343" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="344" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="345" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="346" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="347" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="348" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="349" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="350" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="351" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="352" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="353" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="354" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="355" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="356" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="357" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="358" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="359" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="360" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="361" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="362" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="363" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="364" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="365" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="366" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="367" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="368" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="369" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="370" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="371" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="372" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="373" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="374" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="375" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="376" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="377" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="378" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="379" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="380" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="381" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="382" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="383" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="384" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="385" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="386" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="387" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="388" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="389" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="390" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="391" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="392" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="393" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="394" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="395" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="396" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="397" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="398" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="399" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="400" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="401" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="402" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="403" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="404" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="405" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="406" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="407" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="408" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="409" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="410" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="411" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="412" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="413" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="414" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="415" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="416" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="417" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="418" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="419" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="420" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="421" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="422" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="423" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="424" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="425" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="426" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="427" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="428" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="429" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="430" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="431" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="432" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="433" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="434" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="435" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="436" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="437" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="438" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="439" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="440" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="441" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="442" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="443" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="444" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="445" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="446" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="447" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="448" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="449" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="450" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="451" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="452" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="453" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="454" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="455" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="456" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="457" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="458" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="459" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="460" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="461" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="462" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="463" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="464" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="465" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="466" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="467" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="468" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="469" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="470" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="471" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="472" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="473" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="474" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="475" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="476" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="477" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="478" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="479" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="480" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="481" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="482" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="483" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="484" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="485" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="486" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="487" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="488" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="489" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="490" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="491" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="492" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="493" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="494" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="495" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="496" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="497" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="498" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="499" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="500" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="501" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="502" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="503" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="504" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="505" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="506" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="507" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="508" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="509" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="510" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="511" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="512" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="513" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="514" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="515" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="516" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="517" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="518" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="519" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="520" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="521" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="522" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="523" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="524" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="525" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="526" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="527" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="528" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="529" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="530" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="531" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="532" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="533" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="534" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="535" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="536" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="537" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="538" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="539" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="540" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="541" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="542" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="543" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="544" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="545" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="546" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="547" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="548" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="549" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="550" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="551" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="552" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="553" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="554" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="555" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="556" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="557" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="558" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="559" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="560" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="561" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="562" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="563" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="564" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="565" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="566" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="567" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="568" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="569" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="570" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="571" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="572" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="573" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="574" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="575" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="576" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="577" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="578" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="579" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="580" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="581" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="582" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="583" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="584" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="585" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="586" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="587" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="588" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="589" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="590" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="591" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="592" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="593" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="594" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="595" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="596" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="597" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="598" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="599" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="600" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="601" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="602" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="603" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="604" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="605" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="606" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="607" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="608" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="609" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="610" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="611" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="612" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="613" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="614" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="615" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="616" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="617" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="618" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="619" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="620" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="621" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="622" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="623" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="624" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="625" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="626" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="627" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="628" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="629" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="630" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="631" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="632" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="633" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="634" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="635" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="636" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="637" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="638" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="639" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="640" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="641" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="642" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="643" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="644" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="645" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="646" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="647" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="648" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="649" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="650" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="651" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="652" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="653" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="654" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="655" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="656" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="657" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="658" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="659" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="660" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="661" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="662" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="663" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="664" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="665" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="666" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="667" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="668" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="669" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="670" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="671" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="672" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="673" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="674" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="675" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="676" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="677" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="678" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="679" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="680" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="681" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="682" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="683" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="684" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="685" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="686" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="687" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="688" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="689" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="690" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="691" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="692" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="693" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="694" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="695" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="696" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="697" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="698" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="699" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="700" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="701" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="702" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="703" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="704" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="705" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="706" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="707" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="708" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="709" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="710" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="711" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="712" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="713" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="714" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="715" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="716" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="717" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="718" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="719" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="720" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="721" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="722" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="723" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="724" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="725" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="726" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="727" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="728" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="729" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="730" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="731" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="732" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="733" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="734" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="735" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="736" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="737" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="738" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="739" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="740" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="741" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="742" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="743" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="744" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="745" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="746" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="747" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="748" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="749" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="750" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="751" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="752" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="753" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="754" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="755" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="756" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="757" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="758" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="759" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="760" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="761" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="762" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="763" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="764" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="765" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="766" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="767" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="768" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="769" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="770" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="771" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="772" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="773" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="774" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="775" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="776" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="777" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="778" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="779" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="780" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="781" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="782" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="783" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="784" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="785" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="786" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="787" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="788" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="789" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="790" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="791" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="792" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="793" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="794" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="795" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="796" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="797" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="798" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="799" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="800" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="801" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="802" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="803" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="804" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="805" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="806" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="807" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="808" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="809" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="810" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="811" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="812" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="813" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="814" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="815" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="816" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="817" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="818" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18388,68 +18477,68 @@
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.77734375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.25" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="13" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="11.125" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="9" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="14" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="12.5" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="13" bestFit="1" customWidth="1"/>
-    <col min="42" max="43" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="46" max="47" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="42" max="43" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="46" max="47" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="12.25" bestFit="1" customWidth="1"/>
     <col min="50" max="50" width="14" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="12.5" bestFit="1" customWidth="1"/>
     <col min="53" max="53" width="6" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="22.21875" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="24.21875" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="22.25" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="24.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>205</v>
       </c>
@@ -18631,7 +18720,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="2" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>252</v>
       </c>
@@ -18753,7 +18842,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>252</v>
       </c>
@@ -18875,7 +18964,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>252</v>
       </c>
@@ -18997,7 +19086,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>252</v>
       </c>
@@ -19119,7 +19208,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>252</v>
       </c>
@@ -19241,7 +19330,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>252</v>
       </c>
@@ -19363,7 +19452,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>252</v>
       </c>
@@ -19449,7 +19538,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="9" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>252</v>
       </c>
@@ -19535,7 +19624,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="10" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>252</v>
       </c>
@@ -19621,7 +19710,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="11" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>252</v>
       </c>
@@ -19707,7 +19796,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="12" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>252</v>
       </c>
@@ -19793,7 +19882,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="13" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>252</v>
       </c>
@@ -19879,7 +19968,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="14" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>252</v>
       </c>
@@ -19965,7 +20054,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="15" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>252</v>
       </c>
@@ -20051,7 +20140,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="16" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>252</v>
       </c>
@@ -20137,7 +20226,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="17" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>252</v>
       </c>
@@ -20223,7 +20312,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="18" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>252</v>
       </c>
@@ -20309,7 +20398,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="19" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>252</v>
       </c>
@@ -20395,7 +20484,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="20" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>252</v>
       </c>
@@ -20508,7 +20597,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="21" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>252</v>
       </c>
@@ -20621,7 +20710,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="22" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>252</v>
       </c>
@@ -20734,7 +20823,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="23" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>252</v>
       </c>
@@ -20847,7 +20936,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="24" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>252</v>
       </c>
@@ -20960,7 +21049,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>252</v>
       </c>
@@ -21073,7 +21162,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>252</v>
       </c>
@@ -21186,7 +21275,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="27" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>252</v>
       </c>
@@ -21299,7 +21388,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="28" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>252</v>
       </c>
@@ -21412,7 +21501,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="29" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>252</v>
       </c>
@@ -21525,7 +21614,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="30" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>252</v>
       </c>
@@ -21638,7 +21727,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="31" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>252</v>
       </c>
@@ -21751,7 +21840,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="32" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>252</v>
       </c>
@@ -21870,7 +21959,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="33" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>252</v>
       </c>
@@ -21989,7 +22078,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="34" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>252</v>
       </c>
@@ -22108,7 +22197,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="35" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>252</v>
       </c>
@@ -22227,7 +22316,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="36" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>252</v>
       </c>
@@ -22346,7 +22435,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>252</v>
       </c>
@@ -22465,7 +22554,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="38" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>252</v>
       </c>
@@ -22584,7 +22673,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="39" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>252</v>
       </c>
@@ -22703,7 +22792,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="40" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>252</v>
       </c>
@@ -22822,7 +22911,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="41" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>252</v>
       </c>
@@ -22941,7 +23030,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="42" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>252</v>
       </c>
@@ -23060,7 +23149,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="43" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>252</v>
       </c>
@@ -23190,56 +23279,54 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="23.44140625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="37" max="38" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="27.109375" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="36" max="37" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="27.125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="17.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:42" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>325</v>
       </c>
@@ -23367,12 +23454,12 @@
         <v>349</v>
       </c>
     </row>
-    <row r="2" spans="1:42" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:42" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>429</v>
+        <v>561</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>430</v>
+        <v>562</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>60</v>
@@ -23411,7 +23498,7 @@
         <v>69</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>276</v>
+        <v>563</v>
       </c>
       <c r="T2" s="1" t="s">
         <v>71</v>
@@ -23447,7 +23534,7 @@
         <v>76</v>
       </c>
       <c r="AE2" s="1" t="s">
-        <v>276</v>
+        <v>563</v>
       </c>
       <c r="AF2" s="1" t="s">
         <v>148</v>
@@ -23480,12 +23567,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:42" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:42" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>429</v>
+        <v>561</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>431</v>
+        <v>564</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>60</v>
@@ -23524,7 +23611,7 @@
         <v>69</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>276</v>
+        <v>563</v>
       </c>
       <c r="T3" s="1" t="s">
         <v>71</v>
@@ -23560,7 +23647,7 @@
         <v>76</v>
       </c>
       <c r="AE3" s="1" t="s">
-        <v>276</v>
+        <v>563</v>
       </c>
       <c r="AF3" s="1" t="s">
         <v>148</v>
@@ -23593,12 +23680,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:42" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:42" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>429</v>
+        <v>561</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>432</v>
+        <v>565</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>60</v>
@@ -23637,7 +23724,7 @@
         <v>69</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>276</v>
+        <v>563</v>
       </c>
       <c r="T4" s="1" t="s">
         <v>71</v>
@@ -23658,7 +23745,7 @@
         <v>150</v>
       </c>
       <c r="Z4" s="1" t="s">
-        <v>361</v>
+        <v>545</v>
       </c>
       <c r="AA4" s="1" t="s">
         <v>76</v>
@@ -23673,13 +23760,13 @@
         <v>76</v>
       </c>
       <c r="AE4" s="1" t="s">
-        <v>276</v>
+        <v>563</v>
       </c>
       <c r="AF4" s="1" t="s">
         <v>148</v>
       </c>
       <c r="AG4" s="1" t="s">
-        <v>363</v>
+        <v>566</v>
       </c>
       <c r="AH4" s="1" t="s">
         <v>364</v>
@@ -23706,12 +23793,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:42" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:42" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>429</v>
+        <v>561</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>433</v>
+        <v>567</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>60</v>
@@ -23720,13 +23807,13 @@
         <v>57</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>544</v>
+        <v>58</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>62</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>543</v>
+        <v>62</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>253</v>
@@ -23750,7 +23837,7 @@
         <v>69</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>276</v>
+        <v>563</v>
       </c>
       <c r="T5" s="1" t="s">
         <v>71</v>
@@ -23786,7 +23873,7 @@
         <v>76</v>
       </c>
       <c r="AE5" s="1" t="s">
-        <v>276</v>
+        <v>563</v>
       </c>
       <c r="AF5" s="1" t="s">
         <v>148</v>
@@ -23795,7 +23882,7 @@
         <v>72</v>
       </c>
       <c r="AH5" s="1" t="s">
-        <v>361</v>
+        <v>545</v>
       </c>
       <c r="AI5" s="1" t="s">
         <v>56</v>
@@ -23819,12 +23906,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:42" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:42" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>429</v>
+        <v>561</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>434</v>
+        <v>568</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>60</v>
@@ -23863,7 +23950,7 @@
         <v>69</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>276</v>
+        <v>563</v>
       </c>
       <c r="T6" s="1" t="s">
         <v>71</v>
@@ -23899,7 +23986,7 @@
         <v>76</v>
       </c>
       <c r="AE6" s="1" t="s">
-        <v>276</v>
+        <v>563</v>
       </c>
       <c r="AF6" s="1" t="s">
         <v>148</v>
@@ -23908,7 +23995,7 @@
         <v>72</v>
       </c>
       <c r="AH6" s="1" t="s">
-        <v>361</v>
+        <v>545</v>
       </c>
       <c r="AI6" s="1" t="s">
         <v>56</v>
@@ -23932,12 +24019,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:42" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:42" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>429</v>
+        <v>561</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>435</v>
+        <v>569</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>60</v>
@@ -23976,7 +24063,7 @@
         <v>69</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>276</v>
+        <v>563</v>
       </c>
       <c r="T7" s="1" t="s">
         <v>71</v>
@@ -24012,7 +24099,7 @@
         <v>76</v>
       </c>
       <c r="AE7" s="1" t="s">
-        <v>276</v>
+        <v>563</v>
       </c>
       <c r="AF7" s="1" t="s">
         <v>148</v>
@@ -24045,12 +24132,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:42" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:42" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>429</v>
+        <v>561</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>436</v>
+        <v>570</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>60</v>
@@ -24089,7 +24176,7 @@
         <v>69</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>276</v>
+        <v>563</v>
       </c>
       <c r="T8" s="1" t="s">
         <v>71</v>
@@ -24125,7 +24212,7 @@
         <v>76</v>
       </c>
       <c r="AE8" s="1" t="s">
-        <v>276</v>
+        <v>563</v>
       </c>
       <c r="AF8" s="1" t="s">
         <v>148</v>
@@ -24158,12 +24245,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:42" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:42" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>429</v>
+        <v>561</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>437</v>
+        <v>571</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>60</v>
@@ -24202,7 +24289,7 @@
         <v>69</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>276</v>
+        <v>563</v>
       </c>
       <c r="T9" s="1" t="s">
         <v>71</v>
@@ -24238,7 +24325,7 @@
         <v>76</v>
       </c>
       <c r="AE9" s="1" t="s">
-        <v>276</v>
+        <v>563</v>
       </c>
       <c r="AF9" s="1" t="s">
         <v>148</v>
@@ -24271,12 +24358,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:42" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:42" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>429</v>
+        <v>561</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>438</v>
+        <v>572</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>60</v>
@@ -24315,7 +24402,7 @@
         <v>69</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>276</v>
+        <v>563</v>
       </c>
       <c r="T10" s="1" t="s">
         <v>71</v>
@@ -24351,7 +24438,7 @@
         <v>76</v>
       </c>
       <c r="AE10" s="1" t="s">
-        <v>276</v>
+        <v>563</v>
       </c>
       <c r="AF10" s="1" t="s">
         <v>148</v>
@@ -24384,12 +24471,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:42" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:42" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>429</v>
+        <v>561</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>439</v>
+        <v>573</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>60</v>
@@ -24428,7 +24515,7 @@
         <v>69</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>276</v>
+        <v>563</v>
       </c>
       <c r="T11" s="1" t="s">
         <v>71</v>
@@ -24449,7 +24536,7 @@
         <v>150</v>
       </c>
       <c r="Z11" s="1" t="s">
-        <v>361</v>
+        <v>545</v>
       </c>
       <c r="AA11" s="1" t="s">
         <v>76</v>
@@ -24464,13 +24551,13 @@
         <v>76</v>
       </c>
       <c r="AE11" s="1" t="s">
-        <v>276</v>
+        <v>563</v>
       </c>
       <c r="AF11" s="1" t="s">
         <v>148</v>
       </c>
       <c r="AG11" s="1" t="s">
-        <v>363</v>
+        <v>566</v>
       </c>
       <c r="AH11" s="1" t="s">
         <v>377</v>
@@ -24497,12 +24584,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:42" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:42" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>429</v>
+        <v>561</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>440</v>
+        <v>574</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>60</v>
@@ -24541,7 +24628,7 @@
         <v>69</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>276</v>
+        <v>563</v>
       </c>
       <c r="T12" s="1" t="s">
         <v>71</v>
@@ -24577,7 +24664,7 @@
         <v>76</v>
       </c>
       <c r="AE12" s="1" t="s">
-        <v>276</v>
+        <v>563</v>
       </c>
       <c r="AF12" s="1" t="s">
         <v>148</v>
@@ -24610,12 +24697,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="1:42" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:42" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>429</v>
+        <v>561</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>441</v>
+        <v>575</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>60</v>
@@ -24654,7 +24741,7 @@
         <v>69</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>276</v>
+        <v>563</v>
       </c>
       <c r="T13" s="1" t="s">
         <v>71</v>
@@ -24690,7 +24777,7 @@
         <v>76</v>
       </c>
       <c r="AE13" s="1" t="s">
-        <v>276</v>
+        <v>563</v>
       </c>
       <c r="AF13" s="1" t="s">
         <v>148</v>
@@ -24724,7 +24811,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP1"/>
+  <autoFilter ref="A1:AO1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -24732,117 +24819,132 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CX9"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:CY9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.77734375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="21.77734375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="18" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="19" bestFit="1" customWidth="1"/>
-    <col min="44" max="45" width="19.21875" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="11" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="19" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="22.88671875" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="22.77734375" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="19.21875" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="11" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="21" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="20.88671875" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="7" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="90" max="91" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="94" max="94" width="18" bestFit="1" customWidth="1"/>
-    <col min="95" max="95" width="13" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="98" max="98" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="99" max="99" width="22.21875" bestFit="1" customWidth="1"/>
-    <col min="100" max="100" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="101" max="101" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="102" max="102" width="24.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="21.75" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="18" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="19" bestFit="1" customWidth="1"/>
+    <col min="43" max="44" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="11" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="19" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="22.875" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="11" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="21" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="20.875" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="7" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="89" max="90" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="18" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="13" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="22.25" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="24.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>216</v>
       </c>
@@ -25149,10 +25251,13 @@
       <c r="CX1" s="1" t="s">
         <v>251</v>
       </c>
+      <c r="CY1" s="1" t="s">
+        <v>546</v>
+      </c>
     </row>
-    <row r="2" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>515</v>
+        <v>547</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>516</v>
@@ -25161,16 +25266,16 @@
         <v>61</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>252</v>
+        <v>548</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>429</v>
+        <v>549</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>59</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>60</v>
+        <v>544</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>63</v>
@@ -25182,7 +25287,7 @@
         <v>57</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>60</v>
+        <v>544</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>63</v>
@@ -25197,10 +25302,10 @@
         <v>64</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="U2" s="1" t="s">
         <v>58</v>
@@ -25215,7 +25320,7 @@
         <v>73</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AA2" s="1" t="s">
         <v>518</v>
@@ -25230,7 +25335,7 @@
         <v>258</v>
       </c>
       <c r="AE2" s="1" t="s">
-        <v>519</v>
+        <v>550</v>
       </c>
       <c r="AF2" s="1" t="s">
         <v>71</v>
@@ -25242,10 +25347,10 @@
         <v>258</v>
       </c>
       <c r="AI2" s="1" t="s">
-        <v>385</v>
+        <v>528</v>
       </c>
       <c r="AJ2" s="1" t="s">
-        <v>520</v>
+        <v>528</v>
       </c>
       <c r="AK2" s="1" t="s">
         <v>521</v>
@@ -25385,10 +25490,13 @@
       <c r="CX2" s="1" t="s">
         <v>71</v>
       </c>
+      <c r="CY2" s="1" t="s">
+        <v>258</v>
+      </c>
     </row>
-    <row r="3" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>527</v>
+        <v>551</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>516</v>
@@ -25397,16 +25505,16 @@
         <v>61</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>252</v>
+        <v>548</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>429</v>
+        <v>549</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>59</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>60</v>
+        <v>544</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>63</v>
@@ -25418,7 +25526,7 @@
         <v>57</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>60</v>
+        <v>544</v>
       </c>
       <c r="O3" s="1" t="s">
         <v>63</v>
@@ -25433,10 +25541,10 @@
         <v>64</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="U3" s="1" t="s">
         <v>58</v>
@@ -25451,7 +25559,7 @@
         <v>73</v>
       </c>
       <c r="Z3" s="1" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AA3" s="1" t="s">
         <v>518</v>
@@ -25466,7 +25574,7 @@
         <v>258</v>
       </c>
       <c r="AE3" s="1" t="s">
-        <v>519</v>
+        <v>550</v>
       </c>
       <c r="AF3" s="1" t="s">
         <v>71</v>
@@ -25478,10 +25586,10 @@
         <v>258</v>
       </c>
       <c r="AI3" s="1" t="s">
-        <v>528</v>
+        <v>258</v>
       </c>
       <c r="AJ3" s="1" t="s">
-        <v>528</v>
+        <v>258</v>
       </c>
       <c r="AK3" s="1" t="s">
         <v>521</v>
@@ -25621,10 +25729,13 @@
       <c r="CX3" s="1" t="s">
         <v>71</v>
       </c>
+      <c r="CY3" s="1" t="s">
+        <v>258</v>
+      </c>
     </row>
-    <row r="4" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>529</v>
+        <v>552</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>516</v>
@@ -25633,16 +25744,16 @@
         <v>61</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>252</v>
+        <v>548</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>429</v>
+        <v>549</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>59</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>60</v>
+        <v>544</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>63</v>
@@ -25654,7 +25765,7 @@
         <v>57</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>60</v>
+        <v>544</v>
       </c>
       <c r="O4" s="1" t="s">
         <v>63</v>
@@ -25669,10 +25780,10 @@
         <v>64</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="U4" s="1" t="s">
         <v>58</v>
@@ -25687,7 +25798,7 @@
         <v>73</v>
       </c>
       <c r="Z4" s="1" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AA4" s="1" t="s">
         <v>518</v>
@@ -25702,7 +25813,7 @@
         <v>258</v>
       </c>
       <c r="AE4" s="1" t="s">
-        <v>519</v>
+        <v>550</v>
       </c>
       <c r="AF4" s="1" t="s">
         <v>71</v>
@@ -25714,10 +25825,10 @@
         <v>258</v>
       </c>
       <c r="AI4" s="1" t="s">
-        <v>258</v>
+        <v>531</v>
       </c>
       <c r="AJ4" s="1" t="s">
-        <v>258</v>
+        <v>531</v>
       </c>
       <c r="AK4" s="1" t="s">
         <v>521</v>
@@ -25857,10 +25968,13 @@
       <c r="CX4" s="1" t="s">
         <v>71</v>
       </c>
+      <c r="CY4" s="1" t="s">
+        <v>258</v>
+      </c>
     </row>
-    <row r="5" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>530</v>
+        <v>553</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>516</v>
@@ -25869,16 +25983,16 @@
         <v>61</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>252</v>
+        <v>548</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>429</v>
+        <v>549</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>59</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>60</v>
+        <v>544</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>63</v>
@@ -25890,7 +26004,7 @@
         <v>57</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>60</v>
+        <v>544</v>
       </c>
       <c r="O5" s="1" t="s">
         <v>63</v>
@@ -25905,10 +26019,10 @@
         <v>64</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="U5" s="1" t="s">
         <v>58</v>
@@ -25938,7 +26052,7 @@
         <v>258</v>
       </c>
       <c r="AE5" s="1" t="s">
-        <v>519</v>
+        <v>550</v>
       </c>
       <c r="AF5" s="1" t="s">
         <v>71</v>
@@ -25950,10 +26064,10 @@
         <v>258</v>
       </c>
       <c r="AI5" s="1" t="s">
-        <v>531</v>
+        <v>554</v>
       </c>
       <c r="AJ5" s="1" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="AK5" s="1" t="s">
         <v>521</v>
@@ -26093,10 +26207,13 @@
       <c r="CX5" s="1" t="s">
         <v>71</v>
       </c>
+      <c r="CY5" s="1" t="s">
+        <v>258</v>
+      </c>
     </row>
-    <row r="6" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>533</v>
+        <v>555</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>516</v>
@@ -26105,16 +26222,16 @@
         <v>61</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>252</v>
+        <v>548</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>429</v>
+        <v>549</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>59</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>60</v>
+        <v>544</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>63</v>
@@ -26126,7 +26243,7 @@
         <v>57</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>60</v>
+        <v>544</v>
       </c>
       <c r="O6" s="1" t="s">
         <v>63</v>
@@ -26141,10 +26258,10 @@
         <v>64</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="U6" s="1" t="s">
         <v>58</v>
@@ -26174,7 +26291,7 @@
         <v>258</v>
       </c>
       <c r="AE6" s="1" t="s">
-        <v>519</v>
+        <v>550</v>
       </c>
       <c r="AF6" s="1" t="s">
         <v>71</v>
@@ -26186,10 +26303,10 @@
         <v>258</v>
       </c>
       <c r="AI6" s="1" t="s">
-        <v>534</v>
+        <v>556</v>
       </c>
       <c r="AJ6" s="1" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="AK6" s="1" t="s">
         <v>521</v>
@@ -26329,10 +26446,13 @@
       <c r="CX6" s="1" t="s">
         <v>71</v>
       </c>
+      <c r="CY6" s="1" t="s">
+        <v>258</v>
+      </c>
     </row>
-    <row r="7" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>536</v>
+        <v>557</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>516</v>
@@ -26341,16 +26461,16 @@
         <v>61</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>252</v>
+        <v>548</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>429</v>
+        <v>549</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>59</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>60</v>
+        <v>544</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>63</v>
@@ -26362,7 +26482,7 @@
         <v>57</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>60</v>
+        <v>544</v>
       </c>
       <c r="O7" s="1" t="s">
         <v>63</v>
@@ -26377,10 +26497,10 @@
         <v>64</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="U7" s="1" t="s">
         <v>58</v>
@@ -26395,7 +26515,7 @@
         <v>73</v>
       </c>
       <c r="Z7" s="1" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AA7" s="1" t="s">
         <v>518</v>
@@ -26410,7 +26530,7 @@
         <v>258</v>
       </c>
       <c r="AE7" s="1" t="s">
-        <v>519</v>
+        <v>550</v>
       </c>
       <c r="AF7" s="1" t="s">
         <v>71</v>
@@ -26422,10 +26542,10 @@
         <v>258</v>
       </c>
       <c r="AI7" s="1" t="s">
-        <v>537</v>
+        <v>258</v>
       </c>
       <c r="AJ7" s="1" t="s">
-        <v>538</v>
+        <v>558</v>
       </c>
       <c r="AK7" s="1" t="s">
         <v>521</v>
@@ -26565,10 +26685,13 @@
       <c r="CX7" s="1" t="s">
         <v>71</v>
       </c>
+      <c r="CY7" s="1" t="s">
+        <v>258</v>
+      </c>
     </row>
-    <row r="8" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>539</v>
+        <v>559</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>516</v>
@@ -26577,16 +26700,16 @@
         <v>61</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>252</v>
+        <v>548</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>429</v>
+        <v>549</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>59</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>60</v>
+        <v>544</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>63</v>
@@ -26598,7 +26721,7 @@
         <v>57</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>60</v>
+        <v>544</v>
       </c>
       <c r="O8" s="1" t="s">
         <v>63</v>
@@ -26613,10 +26736,10 @@
         <v>64</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="U8" s="1" t="s">
         <v>58</v>
@@ -26646,7 +26769,7 @@
         <v>258</v>
       </c>
       <c r="AE8" s="1" t="s">
-        <v>519</v>
+        <v>550</v>
       </c>
       <c r="AF8" s="1" t="s">
         <v>71</v>
@@ -26658,10 +26781,10 @@
         <v>258</v>
       </c>
       <c r="AI8" s="1" t="s">
-        <v>385</v>
+        <v>258</v>
       </c>
       <c r="AJ8" s="1" t="s">
-        <v>520</v>
+        <v>258</v>
       </c>
       <c r="AK8" s="1" t="s">
         <v>521</v>
@@ -26801,10 +26924,13 @@
       <c r="CX8" s="1" t="s">
         <v>71</v>
       </c>
+      <c r="CY8" s="1" t="s">
+        <v>258</v>
+      </c>
     </row>
-    <row r="9" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>540</v>
+        <v>560</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>516</v>
@@ -26813,16 +26939,16 @@
         <v>61</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>252</v>
+        <v>548</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>429</v>
+        <v>549</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>59</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>60</v>
+        <v>544</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>63</v>
@@ -26834,7 +26960,7 @@
         <v>57</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>60</v>
+        <v>544</v>
       </c>
       <c r="O9" s="1" t="s">
         <v>63</v>
@@ -26849,10 +26975,10 @@
         <v>64</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="U9" s="1" t="s">
         <v>58</v>
@@ -26882,7 +27008,7 @@
         <v>258</v>
       </c>
       <c r="AE9" s="1" t="s">
-        <v>519</v>
+        <v>550</v>
       </c>
       <c r="AF9" s="1" t="s">
         <v>71</v>
@@ -26897,7 +27023,7 @@
         <v>258</v>
       </c>
       <c r="AJ9" s="1" t="s">
-        <v>258</v>
+        <v>558</v>
       </c>
       <c r="AK9" s="1" t="s">
         <v>521</v>
@@ -27037,63 +27163,65 @@
       <c r="CX9" s="1" t="s">
         <v>71</v>
       </c>
+      <c r="CY9" s="1" t="s">
+        <v>258</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:CY1"/>
+  <autoFilter ref="A1:CX1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.77734375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="19.21875" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="19.625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="18.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -27206,12 +27334,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>60</v>
+        <v>544</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>60</v>
+        <v>544</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>61</v>
@@ -27313,12 +27441,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>60</v>
+        <v>544</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>60</v>
+        <v>544</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>61</v>
@@ -27420,12 +27548,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>60</v>
+        <v>544</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>60</v>
+        <v>544</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>61</v>
@@ -27527,12 +27655,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>60</v>
+        <v>544</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>60</v>
+        <v>544</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>61</v>
@@ -27634,12 +27762,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>60</v>
+        <v>544</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>60</v>
+        <v>544</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>61</v>
@@ -27741,12 +27869,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>60</v>
+        <v>544</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>60</v>
+        <v>544</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>61</v>
@@ -27848,12 +27976,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>60</v>
+        <v>544</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>60</v>
+        <v>544</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>61</v>
@@ -27955,12 +28083,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>60</v>
+        <v>544</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>60</v>
+        <v>544</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>61</v>
@@ -28062,12 +28190,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>60</v>
+        <v>544</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>60</v>
+        <v>544</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>61</v>
@@ -28169,12 +28297,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>60</v>
+        <v>544</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>60</v>
+        <v>544</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>61</v>
@@ -28276,12 +28404,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>60</v>
+        <v>544</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>60</v>
+        <v>544</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>61</v>
@@ -28383,12 +28511,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>60</v>
+        <v>544</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>60</v>
+        <v>544</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>61</v>
@@ -28496,20 +28624,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BC13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2:N13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="14" max="14" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -28676,7 +28804,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>57</v>
       </c>
@@ -28687,10 +28815,10 @@
         <v>59</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>60</v>
+        <v>544</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>60</v>
+        <v>544</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>61</v>
@@ -28714,10 +28842,10 @@
         <v>64</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>79</v>
@@ -28726,13 +28854,13 @@
         <v>69</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="U2" s="1" t="s">
         <v>71</v>
@@ -28750,13 +28878,13 @@
         <v>72</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>72</v>
+        <v>447</v>
       </c>
       <c r="AA2" s="1" t="s">
         <v>73</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="AC2" s="1" t="s">
         <v>72</v>
@@ -28777,13 +28905,13 @@
         <v>72</v>
       </c>
       <c r="AI2" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="AK2" s="1" t="s">
         <v>71</v>
       </c>
       <c r="AL2" s="1" t="s">
-        <v>72</v>
+        <v>447</v>
       </c>
       <c r="AM2" s="1" t="s">
         <v>71</v>
@@ -28798,7 +28926,7 @@
         <v>71</v>
       </c>
       <c r="AQ2" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="AR2" s="1" t="s">
         <v>71</v>
@@ -28810,7 +28938,7 @@
         <v>70</v>
       </c>
       <c r="AU2" s="1" t="s">
-        <v>361</v>
+        <v>72</v>
       </c>
       <c r="AV2" s="1" t="s">
         <v>70</v>
@@ -28837,7 +28965,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>57</v>
       </c>
@@ -28848,10 +28976,10 @@
         <v>59</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>60</v>
+        <v>544</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>60</v>
+        <v>544</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>61</v>
@@ -28875,13 +29003,13 @@
         <v>64</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="Q3" s="1" t="s">
         <v>69</v>
@@ -28917,7 +29045,7 @@
         <v>73</v>
       </c>
       <c r="AB3" s="1" t="s">
-        <v>112</v>
+        <v>446</v>
       </c>
       <c r="AC3" s="1" t="s">
         <v>72</v>
@@ -28938,7 +29066,7 @@
         <v>72</v>
       </c>
       <c r="AI3" s="1" t="s">
-        <v>112</v>
+        <v>446</v>
       </c>
       <c r="AK3" s="1" t="s">
         <v>71</v>
@@ -28959,7 +29087,7 @@
         <v>71</v>
       </c>
       <c r="AQ3" s="1" t="s">
-        <v>112</v>
+        <v>446</v>
       </c>
       <c r="AR3" s="1" t="s">
         <v>71</v>
@@ -28998,7 +29126,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>57</v>
       </c>
@@ -29009,10 +29137,10 @@
         <v>59</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>60</v>
+        <v>544</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>60</v>
+        <v>544</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>61</v>
@@ -29036,10 +29164,10 @@
         <v>64</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="P4" s="1" t="s">
         <v>79</v>
@@ -29048,13 +29176,13 @@
         <v>69</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="U4" s="1" t="s">
         <v>71</v>
@@ -29072,13 +29200,13 @@
         <v>72</v>
       </c>
       <c r="Z4" s="1" t="s">
-        <v>442</v>
+        <v>72</v>
       </c>
       <c r="AA4" s="1" t="s">
         <v>73</v>
       </c>
       <c r="AB4" s="1" t="s">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="AC4" s="1" t="s">
         <v>72</v>
@@ -29099,13 +29227,13 @@
         <v>72</v>
       </c>
       <c r="AI4" s="1" t="s">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="AK4" s="1" t="s">
         <v>71</v>
       </c>
       <c r="AL4" s="1" t="s">
-        <v>443</v>
+        <v>72</v>
       </c>
       <c r="AM4" s="1" t="s">
         <v>71</v>
@@ -29120,7 +29248,7 @@
         <v>71</v>
       </c>
       <c r="AQ4" s="1" t="s">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="AR4" s="1" t="s">
         <v>71</v>
@@ -29132,7 +29260,7 @@
         <v>70</v>
       </c>
       <c r="AU4" s="1" t="s">
-        <v>382</v>
+        <v>72</v>
       </c>
       <c r="AV4" s="1" t="s">
         <v>70</v>
@@ -29159,7 +29287,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>57</v>
       </c>
@@ -29170,10 +29298,10 @@
         <v>59</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>60</v>
+        <v>544</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>60</v>
+        <v>544</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>61</v>
@@ -29197,10 +29325,10 @@
         <v>64</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>103</v>
+        <v>66</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>104</v>
+        <v>67</v>
       </c>
       <c r="P5" s="1" t="s">
         <v>68</v>
@@ -29239,7 +29367,7 @@
         <v>73</v>
       </c>
       <c r="AB5" s="1" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="AC5" s="1" t="s">
         <v>72</v>
@@ -29260,7 +29388,7 @@
         <v>72</v>
       </c>
       <c r="AI5" s="1" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="AK5" s="1" t="s">
         <v>71</v>
@@ -29281,7 +29409,7 @@
         <v>71</v>
       </c>
       <c r="AQ5" s="1" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="AR5" s="1" t="s">
         <v>71</v>
@@ -29320,7 +29448,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>57</v>
       </c>
@@ -29331,10 +29459,10 @@
         <v>59</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>60</v>
+        <v>544</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>60</v>
+        <v>544</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>61</v>
@@ -29394,7 +29522,7 @@
         <v>72</v>
       </c>
       <c r="Z6" s="1" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AA6" s="1" t="s">
         <v>73</v>
@@ -29481,7 +29609,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>57</v>
       </c>
@@ -29492,10 +29620,10 @@
         <v>59</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>60</v>
+        <v>544</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>60</v>
+        <v>544</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>61</v>
@@ -29519,10 +29647,10 @@
         <v>64</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="P7" s="1" t="s">
         <v>68</v>
@@ -29561,7 +29689,7 @@
         <v>73</v>
       </c>
       <c r="AB7" s="1" t="s">
-        <v>446</v>
+        <v>105</v>
       </c>
       <c r="AC7" s="1" t="s">
         <v>72</v>
@@ -29582,7 +29710,7 @@
         <v>72</v>
       </c>
       <c r="AI7" s="1" t="s">
-        <v>446</v>
+        <v>105</v>
       </c>
       <c r="AK7" s="1" t="s">
         <v>71</v>
@@ -29603,7 +29731,7 @@
         <v>71</v>
       </c>
       <c r="AQ7" s="1" t="s">
-        <v>446</v>
+        <v>105</v>
       </c>
       <c r="AR7" s="1" t="s">
         <v>71</v>
@@ -29642,7 +29770,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>57</v>
       </c>
@@ -29653,10 +29781,10 @@
         <v>59</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>60</v>
+        <v>544</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>60</v>
+        <v>544</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>61</v>
@@ -29680,10 +29808,10 @@
         <v>64</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="P8" s="1" t="s">
         <v>79</v>
@@ -29716,13 +29844,13 @@
         <v>72</v>
       </c>
       <c r="Z8" s="1" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="AA8" s="1" t="s">
         <v>73</v>
       </c>
       <c r="AB8" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="AC8" s="1" t="s">
         <v>72</v>
@@ -29743,13 +29871,13 @@
         <v>72</v>
       </c>
       <c r="AI8" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="AK8" s="1" t="s">
         <v>71</v>
       </c>
       <c r="AL8" s="1" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="AM8" s="1" t="s">
         <v>71</v>
@@ -29764,7 +29892,7 @@
         <v>71</v>
       </c>
       <c r="AQ8" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="AR8" s="1" t="s">
         <v>71</v>
@@ -29776,7 +29904,7 @@
         <v>70</v>
       </c>
       <c r="AU8" s="1" t="s">
-        <v>72</v>
+        <v>379</v>
       </c>
       <c r="AV8" s="1" t="s">
         <v>70</v>
@@ -29803,7 +29931,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>57</v>
       </c>
@@ -29814,10 +29942,10 @@
         <v>59</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>60</v>
+        <v>544</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>60</v>
+        <v>544</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>61</v>
@@ -29841,10 +29969,10 @@
         <v>64</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="P9" s="1" t="s">
         <v>79</v>
@@ -29853,13 +29981,13 @@
         <v>69</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="U9" s="1" t="s">
         <v>71</v>
@@ -29877,13 +30005,13 @@
         <v>72</v>
       </c>
       <c r="Z9" s="1" t="s">
-        <v>72</v>
+        <v>443</v>
       </c>
       <c r="AA9" s="1" t="s">
         <v>73</v>
       </c>
       <c r="AB9" s="1" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="AC9" s="1" t="s">
         <v>72</v>
@@ -29904,13 +30032,13 @@
         <v>72</v>
       </c>
       <c r="AI9" s="1" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="AK9" s="1" t="s">
         <v>71</v>
       </c>
       <c r="AL9" s="1" t="s">
-        <v>72</v>
+        <v>443</v>
       </c>
       <c r="AM9" s="1" t="s">
         <v>71</v>
@@ -29925,7 +30053,7 @@
         <v>71</v>
       </c>
       <c r="AQ9" s="1" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="AR9" s="1" t="s">
         <v>71</v>
@@ -29937,7 +30065,7 @@
         <v>70</v>
       </c>
       <c r="AU9" s="1" t="s">
-        <v>72</v>
+        <v>382</v>
       </c>
       <c r="AV9" s="1" t="s">
         <v>70</v>
@@ -29964,7 +30092,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>57</v>
       </c>
@@ -29975,10 +30103,10 @@
         <v>59</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>60</v>
+        <v>544</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>60</v>
+        <v>544</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>61</v>
@@ -30002,10 +30130,10 @@
         <v>64</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>87</v>
+        <v>114</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>88</v>
+        <v>115</v>
       </c>
       <c r="P10" s="1" t="s">
         <v>79</v>
@@ -30098,7 +30226,7 @@
         <v>70</v>
       </c>
       <c r="AU10" s="1" t="s">
-        <v>361</v>
+        <v>545</v>
       </c>
       <c r="AV10" s="1" t="s">
         <v>70</v>
@@ -30125,7 +30253,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>57</v>
       </c>
@@ -30136,10 +30264,10 @@
         <v>59</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>60</v>
+        <v>544</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>60</v>
+        <v>544</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>61</v>
@@ -30286,7 +30414,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>57</v>
       </c>
@@ -30297,10 +30425,10 @@
         <v>59</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>60</v>
+        <v>544</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>60</v>
+        <v>544</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>61</v>
@@ -30324,10 +30452,10 @@
         <v>64</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="P12" s="1" t="s">
         <v>79</v>
@@ -30336,13 +30464,13 @@
         <v>69</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="T12" s="1" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="U12" s="1" t="s">
         <v>71</v>
@@ -30360,13 +30488,13 @@
         <v>72</v>
       </c>
       <c r="Z12" s="1" t="s">
-        <v>448</v>
+        <v>72</v>
       </c>
       <c r="AA12" s="1" t="s">
         <v>73</v>
       </c>
       <c r="AB12" s="1" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AC12" s="1" t="s">
         <v>72</v>
@@ -30387,13 +30515,13 @@
         <v>72</v>
       </c>
       <c r="AI12" s="1" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AK12" s="1" t="s">
         <v>71</v>
       </c>
       <c r="AL12" s="1" t="s">
-        <v>449</v>
+        <v>72</v>
       </c>
       <c r="AM12" s="1" t="s">
         <v>71</v>
@@ -30408,7 +30536,7 @@
         <v>71</v>
       </c>
       <c r="AQ12" s="1" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AR12" s="1" t="s">
         <v>71</v>
@@ -30420,7 +30548,7 @@
         <v>70</v>
       </c>
       <c r="AU12" s="1" t="s">
-        <v>379</v>
+        <v>72</v>
       </c>
       <c r="AV12" s="1" t="s">
         <v>70</v>
@@ -30447,7 +30575,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>57</v>
       </c>
@@ -30458,10 +30586,10 @@
         <v>59</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>60</v>
+        <v>544</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>60</v>
+        <v>544</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>61</v>
@@ -30485,13 +30613,13 @@
         <v>64</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="Q13" s="1" t="s">
         <v>69</v>
@@ -30527,7 +30655,7 @@
         <v>73</v>
       </c>
       <c r="AB13" s="1" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="AC13" s="1" t="s">
         <v>72</v>
@@ -30548,7 +30676,7 @@
         <v>72</v>
       </c>
       <c r="AI13" s="1" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="AK13" s="1" t="s">
         <v>71</v>
@@ -30569,7 +30697,7 @@
         <v>71</v>
       </c>
       <c r="AQ13" s="1" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="AR13" s="1" t="s">
         <v>71</v>
@@ -30581,7 +30709,7 @@
         <v>70</v>
       </c>
       <c r="AU13" s="1" t="s">
-        <v>72</v>
+        <v>545</v>
       </c>
       <c r="AV13" s="1" t="s">
         <v>70</v>
@@ -30609,7 +30737,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:BC1"/>
+  <autoFilter ref="A1:BB1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/用例数据/沪权/组合保证金/测试结果.xlsx
+++ b/用例数据/沪权/组合保证金/测试结果.xlsx
@@ -10,15 +10,13 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="stkoptionsettlement" sheetId="6" r:id="rId2"/>
     <sheet name="FutureCombAction" sheetId="5" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="7" r:id="rId4"/>
-    <sheet name="futuretradinglog" sheetId="4" r:id="rId5"/>
-    <sheet name="futurepositiondetail" sheetId="3" r:id="rId6"/>
-    <sheet name="futureposition" sheetId="2" r:id="rId7"/>
+    <sheet name="futuretradinglog" sheetId="4" r:id="rId4"/>
+    <sheet name="futurepositiondetail" sheetId="3" r:id="rId5"/>
+    <sheet name="futureposition" sheetId="2" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">FutureCombAction!$A$1:$AO$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">futureposition!$A$1:$BB$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">futuretradinglog!$A$1:$CX$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">futureposition!$A$1:$BB$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">futuretradinglog!$A$1:$CX$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">stkoptionsettlement!$A$1:$BH$1</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -23277,10 +23275,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AP13"/>
+  <dimension ref="A1:AP14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -24557,7 +24555,7 @@
         <v>148</v>
       </c>
       <c r="AG11" s="1" t="s">
-        <v>566</v>
+        <v>72</v>
       </c>
       <c r="AH11" s="1" t="s">
         <v>377</v>
@@ -24810,35 +24808,20 @@
         <v>72</v>
       </c>
     </row>
+    <row r="14" spans="1:42" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <autoFilter ref="A1:AO1"/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CY9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -27174,7 +27157,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK13"/>
   <sheetViews>
@@ -28624,7 +28607,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BC13"/>
   <sheetViews>
